--- a/Hydrophones/Calibration/manual_calibrations_combined_V2.xlsx
+++ b/Hydrophones/Calibration/manual_calibrations_combined_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Hydrophones\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41303F0-70DA-4201-90E7-4FA555115F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8B869D-2B6C-409C-814D-B57331719945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hilbert envelope" sheetId="1" r:id="rId1"/>
@@ -23971,8 +23971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25544,8 +25544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBDE796-D6C4-41DF-BB85-D95E6EE6B828}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AG13" sqref="AG13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Hydrophones/Calibration/manual_calibrations_combined_V2.xlsx
+++ b/Hydrophones/Calibration/manual_calibrations_combined_V2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Hydrophones\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999BDCFB-70F8-495C-ABEF-689E7A1C8AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434C20C4-8F3D-4B2B-8D53-AFB8F8BC25F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hilbert envelope" sheetId="1" r:id="rId1"/>
-    <sheet name="validation" sheetId="6" r:id="rId2"/>
-    <sheet name="rectified envelope" sheetId="4" r:id="rId3"/>
-    <sheet name="r2" sheetId="5" r:id="rId4"/>
+    <sheet name="rectified envelope" sheetId="4" r:id="rId2"/>
+    <sheet name="r2" sheetId="5" r:id="rId3"/>
+    <sheet name="validation" sheetId="6" r:id="rId4"/>
     <sheet name="floods" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>Particle #</t>
   </si>
@@ -224,13 +246,107 @@
   <si>
     <t>ch6</t>
   </si>
+  <si>
+    <t>Hilbert Env</t>
+  </si>
+  <si>
+    <t>ch6_median</t>
+  </si>
+  <si>
+    <t>ch5_median</t>
+  </si>
+  <si>
+    <t>ch4_median</t>
+  </si>
+  <si>
+    <t>ch3_median</t>
+  </si>
+  <si>
+    <t>ch2_median</t>
+  </si>
+  <si>
+    <t>ch1_median</t>
+  </si>
+  <si>
+    <t>flood1</t>
+  </si>
+  <si>
+    <t>Rectified Env</t>
+  </si>
+  <si>
+    <t>flood2</t>
+  </si>
+  <si>
+    <t>flood3</t>
+  </si>
+  <si>
+    <t>flood4</t>
+  </si>
+  <si>
+    <t>flood5</t>
+  </si>
+  <si>
+    <t>time (s)</t>
+  </si>
+  <si>
+    <t>Max Amp (V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean Amp (V) </t>
+  </si>
+  <si>
+    <t>Med Amp (V)</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Measured Dmax</t>
+  </si>
+  <si>
+    <t>Dmax - Max Amp (2)</t>
+  </si>
+  <si>
+    <t>Dmax - Mean Amp (1)</t>
+  </si>
+  <si>
+    <t>Dmax - Mean Amp (2)</t>
+  </si>
+  <si>
+    <t>Dmax - Max Amp (3)</t>
+  </si>
+  <si>
+    <t>Dmax - Max Amp (4)</t>
+  </si>
+  <si>
+    <t>Max Amp - Dmax (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMSE </t>
+  </si>
+  <si>
+    <t>Max Amp</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>Over the whole sampling period</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -248,7 +364,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +386,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -328,15 +474,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -371,6 +508,69 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1652,7 +1852,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1670,6 +1870,56 @@
                     <a:lumOff val="80000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.33582516541775098"/>
+                  <c:y val="2.7222951297754448E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -3108,8 +3358,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.0220841232588099E-3"/>
-                  <c:y val="0.16350357247010791"/>
+                  <c:x val="-0.52213257629126042"/>
+                  <c:y val="0.47765529308836396"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3426,8 +3676,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.18558557638093662"/>
-                  <c:y val="0.37293999708369785"/>
+                  <c:x val="-6.9656345868468791E-2"/>
+                  <c:y val="0.32935221638961798"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3750,8 +4000,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.13197990015683342"/>
-                  <c:y val="0.4440277777777778"/>
+                  <c:x val="0.13601466796007283"/>
+                  <c:y val="0.61532407407407408"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4284,6 +4534,53 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -22977,6 +23274,3363 @@
 </file>
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Dmax vs Max Amp (2)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0806144776312678E-2"/>
+                  <c:y val="-8.2391003207932342E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'hilbert envelope'!$E$2:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.104819100180613</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1422303101187901E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.161944718485239</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9416636847151898E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.68499378365069E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1754391722476999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2688332148029005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10293183462706799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4543546788178297E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5639162401153693E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.00794247374499E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10538288704710901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7724885205644801E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2481115003792299E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.09573532088619E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2279504588702301E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0897008883362201E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.13162316396569E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4554138346802101E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6195175632876601E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.06254875376059E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4104257016193398E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4074185586351197E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.9634801117522301E-3</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>1.40031756933689E-2</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>1.0890800850407899E-2</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>2.3197934886697399E-2</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>3.5345925929864103E-2</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>2.4016207968108199E-2</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>1.9422121419342901E-2</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>0.12653412852816501</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>5.1502950973667999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>5.04335454776157E-2</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>9.6840712231762202E-2</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>4.1669974213015902E-2</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>6.5041528765672305E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'hilbert envelope'!$B$2:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-20A3-47D8-99B4-2DCAEC382869}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2086021568"/>
+        <c:axId val="2086022048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2086021568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Max Amplitude</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (V)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2086022048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2086022048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dmax (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2086021568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050"/>
+              <a:t>Calculated</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" baseline="0"/>
+              <a:t> vs Measured Dmax - Using Max Amp</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1050"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1848758392334138"/>
+          <c:y val="1.2570876150474378E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17040681524526533"/>
+          <c:y val="0.19474530778025054"/>
+          <c:w val="0.77985741863453628"/>
+          <c:h val="0.54725346152767484"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>validation!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max Amp - Dmax (1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>validation!$B$19:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>validation!$C$19:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>12.498377815678667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8937326206160225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8125609180160434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.587861276600501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5312-42FA-B61E-83431FBF0FBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>validation!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dmax - Max Amp (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.30022610823088419"/>
+                  <c:y val="-0.13373960469378698"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>validation!$B$19:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>validation!$D$19:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>97.695517607575738</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.558611168539372</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.351982834008801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.468560837516662</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5312-42FA-B61E-83431FBF0FBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>validation!$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dmax - Max Amp (3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.30348851965127649"/>
+                  <c:y val="0.13203577255622662"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>validation!$B$19:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>validation!$E$19:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>99.727167764153535</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.904529640463622</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.285515845279502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.389258082839561</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5312-42FA-B61E-83431FBF0FBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>validation!$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dmax - Max Amp (4)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.31184029288748072"/>
+                  <c:y val="-2.7429915715739845E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>validation!$B$19:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>validation!$F$19:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>95.622784164000777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.56527987715296</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.607987322204224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.229578162012615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5312-42FA-B61E-83431FBF0FBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1395576063"/>
+        <c:axId val="1395555903"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>1:1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>validation!$B$35:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>validation!$C$35:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5312-42FA-B61E-83431FBF0FBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1395576063"/>
+        <c:axId val="1395555903"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1395576063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Measured (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1395555903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1395555903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Calculated</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (mm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1395576063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.1243302423483605E-2"/>
+          <c:y val="0.88778812477564695"/>
+          <c:w val="0.9424924206733104"/>
+          <c:h val="9.4610121147190862E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Amax </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>vs Dmax (1)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>mov 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="34"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C590-4CAE-B85D-C78266EC17FD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'hilbert envelope'!$B$26:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'hilbert envelope'!$E$26:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.40031756933689E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0890800850407899E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3197934886697399E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5345925929864103E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4016207968108199E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9422121419342901E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12653412852816501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1502950973667999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.04335454776157E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.6840712231762202E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1669974213015902E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5041528765672305E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C590-4CAE-B85D-C78266EC17FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>total</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.1346367484345608E-2"/>
+                  <c:y val="0.30603579098067285"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'hilbert envelope'!$B$2:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'hilbert envelope'!$E$2:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.104819100180613</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1422303101187901E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.161944718485239</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9416636847151898E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.68499378365069E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1754391722476999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2688332148029005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10293183462706799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4543546788178297E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5639162401153693E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.00794247374499E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10538288704710901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7724885205644801E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2481115003792299E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.09573532088619E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2279504588702301E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0897008883362201E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.13162316396569E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4554138346802101E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6195175632876601E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.06254875376059E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4104257016193398E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4074185586351197E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.9634801117522301E-3</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>1.40031756933689E-2</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>1.0890800850407899E-2</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>2.3197934886697399E-2</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>3.5345925929864103E-2</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>2.4016207968108199E-2</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>1.9422121419342901E-2</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>0.12653412852816501</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>5.1502950973667999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>5.04335454776157E-2</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>9.6840712231762202E-2</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>4.1669974213015902E-2</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>6.5041528765672305E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C590-4CAE-B85D-C78266EC17FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="299639312"/>
+        <c:axId val="299627312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="299639312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dmax</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (mm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299627312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="299627312"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Max Amplitude (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299639312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t>Dmax vs AmpMax ( 3 and 4)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.18916629900733323"/>
+                  <c:y val="0.13847222222222222"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15901921826719537"/>
+                  <c:y val="0.30648658501020704"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'hilbert envelope'!$E$2:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.104819100180613</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1422303101187901E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.161944718485239</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9416636847151898E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.68499378365069E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1754391722476999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2688332148029005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10293183462706799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4543546788178297E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5639162401153693E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.00794247374499E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10538288704710901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7724885205644801E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2481115003792299E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.09573532088619E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2279504588702301E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0897008883362201E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.13162316396569E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4554138346802101E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6195175632876601E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.06254875376059E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4104257016193398E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4074185586351197E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.9634801117522301E-3</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>1.40031756933689E-2</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>1.0890800850407899E-2</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>2.3197934886697399E-2</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>3.5345925929864103E-2</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>2.4016207968108199E-2</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>1.9422121419342901E-2</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>0.12653412852816501</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>5.1502950973667999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>5.04335454776157E-2</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>9.6840712231762202E-2</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>4.1669974213015902E-2</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>6.5041528765672305E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'hilbert envelope'!$B$2:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-276A-47B2-9771-08E1478CB6D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2086021568"/>
+        <c:axId val="2086022048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2086021568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Amplitude</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44311466486788836"/>
+              <c:y val="0.88793963254593178"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2086022048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2086022048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dmax</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7282426009174521E-2"/>
+              <c:y val="0.34314049285505976"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2086021568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -39245,6 +42899,163 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -46729,6 +50540,2070 @@
 </file>
 
 <file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -51664,6 +57539,161 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123411</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>69160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>49833</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>163108</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F4C65D-0C9E-474C-AF01-DFDCBA30C0AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>165653</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>58597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>41412</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E567D33-46DD-B248-80E9-7E624FAC08E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66264</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>107675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>49697</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>107675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB679F5B-0A51-4FF8-8D60-72BCCB5E9F2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>99392</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57979</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>57977</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B65CE5-9526-43D6-ABD1-C44A7C402BE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>560070</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -51966,8 +57996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView topLeftCell="U31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="S65" sqref="S65"/>
+    <sheetView topLeftCell="H31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W54" sqref="W54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54138,22 +60168,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6667A51C-0832-4187-ACFD-287EA715E1F0}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBDE796-D6C4-41DF-BB85-D95E6EE6B828}">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AW21" sqref="AW21"/>
     </sheetView>
   </sheetViews>
@@ -56262,12 +62280,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E94053-825F-44F8-8B32-58C511E38E44}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56286,14 +62304,14 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
@@ -56349,10 +62367,10 @@
       <c r="C4" s="7">
         <v>0.55200000000000005</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>0.68540000000000001</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="18">
         <v>0.68520000000000003</v>
       </c>
       <c r="F4" s="7">
@@ -56395,24 +62413,24 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="11"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -56421,10 +62439,10 @@
       <c r="D8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -56439,7 +62457,7 @@
       <c r="J8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -56447,34 +62465,34 @@
       <c r="A9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="13">
         <v>2.7E-2</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="14">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="14">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="15">
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="13">
         <v>0.68300000000000005</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="19">
         <v>0.57879999999999998</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="14">
         <v>0.68540000000000001</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="14">
         <v>0.58389999999999997</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="14">
         <v>0.65639999999999998</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="15">
         <v>0.60699999999999998</v>
       </c>
     </row>
@@ -56482,22 +62500,22 @@
       <c r="A10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="13">
         <v>1.21E-2</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="14">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="14">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="15">
         <v>0.1037</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="12">
         <v>0.68300000000000005</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="20">
         <v>0.57869999999999999</v>
       </c>
       <c r="H10" s="3">
@@ -56509,7 +62527,7 @@
       <c r="J10" s="3">
         <v>0.65639999999999998</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="11">
         <v>0.60660000000000003</v>
       </c>
     </row>
@@ -56517,34 +62535,34 @@
       <c r="A11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="12">
         <v>0.45610000000000001</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="14">
         <v>0.44900000000000001</v>
       </c>
       <c r="D11" s="3">
         <v>0.51060000000000005</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="15">
         <v>0.51239999999999997</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="13">
         <v>0.67349999999999999</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="19">
         <v>0.53559999999999997</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="14">
         <v>0.67500000000000004</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="14">
         <v>0.53790000000000004</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="14">
         <v>0.65439999999999998</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="15">
         <v>0.56930000000000003</v>
       </c>
     </row>
@@ -56552,7 +62570,7 @@
       <c r="A12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="12">
         <v>0.54339999999999999</v>
       </c>
       <c r="C12" s="3">
@@ -56561,25 +62579,25 @@
       <c r="D12" s="3">
         <v>0.58479999999999999</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="11">
         <v>0.54890000000000005</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="13">
         <v>0.56969999999999998</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="19">
         <v>0.44779999999999998</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="14">
         <v>0.57520000000000004</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="14">
         <v>0.46210000000000001</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="14">
         <v>0.61250000000000004</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="15">
         <v>0.50790000000000002</v>
       </c>
     </row>
@@ -56587,34 +62605,34 @@
       <c r="A13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="13">
         <v>0.36980000000000002</v>
       </c>
       <c r="C13" s="3">
         <v>0.50829999999999997</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="14">
         <v>0.44440000000000002</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="11">
         <v>0.53139999999999998</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="13">
         <v>0.62539999999999996</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="19">
         <v>0.28749999999999998</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="14">
         <v>0.62919999999999998</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="14">
         <v>0.30859999999999999</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="14">
         <v>0.62819999999999998</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="15">
         <v>0.34050000000000002</v>
       </c>
     </row>
@@ -56622,48 +62640,48 @@
       <c r="A14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="13">
         <v>0.43440000000000001</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="14">
         <v>0.3034</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="14">
         <v>0.435</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="15">
         <v>0.2422</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="13">
         <v>6.8500000000000005E-2</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="19">
         <v>0.1012</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="14">
         <v>7.5700000000000003E-2</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="14">
         <v>0.1135</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="14">
         <v>8.9499999999999996E-2</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="15">
         <v>0.12989999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -56675,12 +62693,1156 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6667A51C-0832-4187-ACFD-287EA715E1F0}">
+  <dimension ref="A1:Y45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" customWidth="1"/>
+    <col min="20" max="20" width="12" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" customWidth="1"/>
+    <col min="24" max="24" width="11.85546875" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="23">
+        <v>479.999977324263</v>
+      </c>
+      <c r="C2" s="24">
+        <v>0.21698840087687299</v>
+      </c>
+      <c r="D2" s="24">
+        <v>6.9417065E-2</v>
+      </c>
+      <c r="E2" s="24">
+        <v>5.3667272000000002E-2</v>
+      </c>
+      <c r="F2" s="21">
+        <v>106</v>
+      </c>
+      <c r="G2" s="21">
+        <v>4199</v>
+      </c>
+      <c r="H2" s="21">
+        <v>38691</v>
+      </c>
+      <c r="I2" s="21">
+        <v>80601</v>
+      </c>
+      <c r="J2" s="21">
+        <v>71080</v>
+      </c>
+      <c r="K2" s="21">
+        <v>22984</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="24">
+        <v>0.120912157052691</v>
+      </c>
+      <c r="N2" s="24">
+        <v>0.33180424301834099</v>
+      </c>
+      <c r="O2" s="24">
+        <v>1.1106730436618699</v>
+      </c>
+      <c r="P2" s="24">
+        <v>4.4426921746474797</v>
+      </c>
+      <c r="Q2" s="24">
+        <v>17.770768698589901</v>
+      </c>
+      <c r="R2" s="24">
+        <v>71.083074794359803</v>
+      </c>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24">
+        <v>0.118359313673794</v>
+      </c>
+      <c r="U2" s="24">
+        <v>0.30693782510638401</v>
+      </c>
+      <c r="V2" s="24">
+        <v>0.85867635779576901</v>
+      </c>
+      <c r="W2" s="24">
+        <v>3.4347054311830698</v>
+      </c>
+      <c r="X2" s="24">
+        <v>13.738821724732301</v>
+      </c>
+      <c r="Y2" s="24">
+        <v>54.955286898929202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="23">
+        <v>49.999977324263</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0.103785400341108</v>
+      </c>
+      <c r="D3" s="24">
+        <v>9.3097685505032102E-3</v>
+      </c>
+      <c r="E3" s="24">
+        <v>2.6623638531804101E-3</v>
+      </c>
+      <c r="F3" s="21">
+        <v>7</v>
+      </c>
+      <c r="G3" s="21">
+        <v>32</v>
+      </c>
+      <c r="H3" s="21">
+        <v>148</v>
+      </c>
+      <c r="I3" s="21">
+        <v>475</v>
+      </c>
+      <c r="J3" s="21">
+        <v>1883</v>
+      </c>
+      <c r="K3" s="21">
+        <v>5866</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="24">
+        <v>8.7491372398812203E-2</v>
+      </c>
+      <c r="N3" s="24">
+        <v>0.209281252002183</v>
+      </c>
+      <c r="O3" s="24">
+        <v>0.53107420883976697</v>
+      </c>
+      <c r="P3" s="24">
+        <v>1.1427850401592301</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>2.42627671242104</v>
+      </c>
+      <c r="R3" s="24">
+        <v>9.5332029957152908</v>
+      </c>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24">
+        <v>0.103757048244818</v>
+      </c>
+      <c r="U3" s="24">
+        <v>0.14698858143442201</v>
+      </c>
+      <c r="V3" s="24">
+        <v>0.24910673933583599</v>
+      </c>
+      <c r="W3" s="24">
+        <v>0.37211833067852301</v>
+      </c>
+      <c r="X3" s="24">
+        <v>0.69718753395348498</v>
+      </c>
+      <c r="Y3" s="24">
+        <v>2.7262605856567399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="23">
+        <v>99.999977324263</v>
+      </c>
+      <c r="C4" s="24">
+        <v>1.7343593585544201E-2</v>
+      </c>
+      <c r="D4" s="24">
+        <v>3.7541223526986601E-3</v>
+      </c>
+      <c r="E4" s="24">
+        <v>3.5652204100954199E-3</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21">
+        <v>3</v>
+      </c>
+      <c r="H4" s="21">
+        <v>17</v>
+      </c>
+      <c r="I4" s="21">
+        <v>221</v>
+      </c>
+      <c r="J4" s="21">
+        <v>2965</v>
+      </c>
+      <c r="K4" s="21">
+        <v>14897</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24">
+        <v>4.8899641067386798E-2</v>
+      </c>
+      <c r="O4" s="24">
+        <v>0.137793372793407</v>
+      </c>
+      <c r="P4" s="24">
+        <v>0.30126664954396598</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>0.96105532229085699</v>
+      </c>
+      <c r="R4" s="24">
+        <v>3.84422128916342</v>
+      </c>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24">
+        <v>4.8899641067386798E-2</v>
+      </c>
+      <c r="V4" s="24">
+        <v>0.11369963117038601</v>
+      </c>
+      <c r="W4" s="24">
+        <v>0.28479190741614602</v>
+      </c>
+      <c r="X4" s="24">
+        <v>0.91269642498442904</v>
+      </c>
+      <c r="Y4" s="24">
+        <v>3.65078569993771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="23">
+        <v>199.999977324263</v>
+      </c>
+      <c r="C5" s="24">
+        <v>7.6130482621443903E-3</v>
+      </c>
+      <c r="D5" s="24">
+        <v>4.6194348205836396E-3</v>
+      </c>
+      <c r="E5" s="24">
+        <v>4.7748825034219702E-3</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
+        <v>0</v>
+      </c>
+      <c r="H5" s="21">
+        <v>8</v>
+      </c>
+      <c r="I5" s="21">
+        <v>616</v>
+      </c>
+      <c r="J5" s="21">
+        <v>10215</v>
+      </c>
+      <c r="K5" s="21">
+        <v>29738</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24">
+        <v>8.7334190395029695E-2</v>
+      </c>
+      <c r="P5" s="24">
+        <v>0.33191630848951997</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>1.1911345040895001</v>
+      </c>
+      <c r="R5" s="24">
+        <v>4.7303012562776399</v>
+      </c>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24">
+        <v>8.4555204603017103E-2</v>
+      </c>
+      <c r="W5" s="24">
+        <v>0.332343247681325</v>
+      </c>
+      <c r="X5" s="24">
+        <v>1.22806705924614</v>
+      </c>
+      <c r="Y5" s="24">
+        <v>4.8894796835041001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="23">
+        <v>149.999977324263</v>
+      </c>
+      <c r="C6" s="24">
+        <v>9.5590751489404505E-2</v>
+      </c>
+      <c r="D6" s="24">
+        <v>4.1750172724988703E-3</v>
+      </c>
+      <c r="E6" s="24">
+        <v>3.0008966016067001E-3</v>
+      </c>
+      <c r="F6" s="21">
+        <v>4</v>
+      </c>
+      <c r="G6" s="21">
+        <v>7</v>
+      </c>
+      <c r="H6" s="21">
+        <v>43</v>
+      </c>
+      <c r="I6" s="21">
+        <v>325</v>
+      </c>
+      <c r="J6" s="21">
+        <v>4737</v>
+      </c>
+      <c r="K6" s="21">
+        <v>21140</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="24">
+        <v>9.5590751489404505E-2</v>
+      </c>
+      <c r="N6" s="24">
+        <v>0.38236300595761802</v>
+      </c>
+      <c r="O6" s="24">
+        <v>0.30150636762101002</v>
+      </c>
+      <c r="P6" s="24">
+        <v>0.40942486346857698</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>1.08441649984316</v>
+      </c>
+      <c r="R6" s="24">
+        <v>4.2752176870388396</v>
+      </c>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24">
+        <v>9.5590751489404505E-2</v>
+      </c>
+      <c r="U6" s="24">
+        <v>0.38236300595761802</v>
+      </c>
+      <c r="V6" s="24">
+        <v>0.161126362185676</v>
+      </c>
+      <c r="W6" s="24">
+        <v>0.28514455549158801</v>
+      </c>
+      <c r="X6" s="24">
+        <v>0.77490970037964602</v>
+      </c>
+      <c r="Y6" s="24">
+        <v>3.07291812004526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="U9" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="V9" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="W9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="X9" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y9" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="23">
+        <v>479.999977324263</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0.13821112529558399</v>
+      </c>
+      <c r="D10" s="24">
+        <v>4.4193026175934902E-2</v>
+      </c>
+      <c r="E10" s="24">
+        <v>3.4241041168528601E-2</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1</v>
+      </c>
+      <c r="G10" s="21">
+        <v>118</v>
+      </c>
+      <c r="H10" s="21">
+        <v>4693</v>
+      </c>
+      <c r="I10" s="21">
+        <v>12037</v>
+      </c>
+      <c r="J10" s="21">
+        <v>7574</v>
+      </c>
+      <c r="K10" s="21">
+        <v>487</v>
+      </c>
+      <c r="M10" s="24">
+        <v>0.11751364062379099</v>
+      </c>
+      <c r="N10" s="24">
+        <v>0.319395141827227</v>
+      </c>
+      <c r="O10" s="24">
+        <v>0.78876324282771304</v>
+      </c>
+      <c r="P10" s="24">
+        <v>2.8283536752598302</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>11.313414701039299</v>
+      </c>
+      <c r="R10" s="24">
+        <v>45.253658804157297</v>
+      </c>
+      <c r="T10" s="24">
+        <v>0.11751364062379099</v>
+      </c>
+      <c r="U10" s="24">
+        <v>0.31127578181348298</v>
+      </c>
+      <c r="V10" s="24">
+        <v>0.66601437811950503</v>
+      </c>
+      <c r="W10" s="24">
+        <v>2.19142663478583</v>
+      </c>
+      <c r="X10" s="24">
+        <v>8.7657065391433306</v>
+      </c>
+      <c r="Y10" s="24">
+        <v>35.062826156573301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="23">
+        <v>49.999977324263</v>
+      </c>
+      <c r="C11" s="24">
+        <v>6.6031662526564394E-2</v>
+      </c>
+      <c r="D11" s="24">
+        <v>5.9237163792602698E-3</v>
+      </c>
+      <c r="E11" s="24">
+        <v>1.6943786080546501E-3</v>
+      </c>
+      <c r="F11" s="21">
+        <v>1</v>
+      </c>
+      <c r="G11" s="21">
+        <v>8</v>
+      </c>
+      <c r="H11" s="21">
+        <v>35</v>
+      </c>
+      <c r="I11" s="21">
+        <v>104</v>
+      </c>
+      <c r="J11" s="21">
+        <v>254</v>
+      </c>
+      <c r="K11" s="21">
+        <v>906</v>
+      </c>
+      <c r="M11" s="24">
+        <v>6.5989610525165596E-2</v>
+      </c>
+      <c r="N11" s="24">
+        <v>0.22263256137064</v>
+      </c>
+      <c r="O11" s="24">
+        <v>0.47163864454092103</v>
+      </c>
+      <c r="P11" s="24">
+        <v>1.0948630488961699</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>2.1495545555098401</v>
+      </c>
+      <c r="R11" s="24">
+        <v>6.0658855723625198</v>
+      </c>
+      <c r="T11" s="24">
+        <v>6.5989610525165596E-2</v>
+      </c>
+      <c r="U11" s="24">
+        <v>0.26395844210066199</v>
+      </c>
+      <c r="V11" s="24">
+        <v>0.18898032241923399</v>
+      </c>
+      <c r="W11" s="24">
+        <v>0.49289501164511501</v>
+      </c>
+      <c r="X11" s="24">
+        <v>0.59134539304591804</v>
+      </c>
+      <c r="Y11" s="24">
+        <v>1.7350436946479599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="23">
+        <v>99.999977324263</v>
+      </c>
+      <c r="C12" s="24">
+        <v>1.10431355128058E-2</v>
+      </c>
+      <c r="D12" s="24">
+        <v>2.38994288849095E-3</v>
+      </c>
+      <c r="E12" s="24">
+        <v>2.2696459116837101E-3</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
+        <v>0</v>
+      </c>
+      <c r="H12" s="21">
+        <v>3</v>
+      </c>
+      <c r="I12" s="21">
+        <v>30</v>
+      </c>
+      <c r="J12" s="21">
+        <v>372</v>
+      </c>
+      <c r="K12" s="21">
+        <v>2592</v>
+      </c>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24">
+        <v>0.12454786890579</v>
+      </c>
+      <c r="P12" s="24">
+        <v>0.242137126172387</v>
+      </c>
+      <c r="Q12" s="24">
+        <v>0.67744631977663905</v>
+      </c>
+      <c r="R12" s="24">
+        <v>2.4473015178147302</v>
+      </c>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24">
+        <v>0.12454786890579</v>
+      </c>
+      <c r="W12" s="24">
+        <v>0.21183497378216101</v>
+      </c>
+      <c r="X12" s="24">
+        <v>0.64348467898534101</v>
+      </c>
+      <c r="Y12" s="24">
+        <v>2.32411741356412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="23">
+        <v>199.999977324263</v>
+      </c>
+      <c r="C13" s="24">
+        <v>4.8520580407350701E-3</v>
+      </c>
+      <c r="D13" s="24">
+        <v>2.9407908289032802E-3</v>
+      </c>
+      <c r="E13" s="24">
+        <v>3.04017817618787E-3</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0</v>
+      </c>
+      <c r="H13" s="21">
+        <v>1</v>
+      </c>
+      <c r="I13" s="21">
+        <v>45</v>
+      </c>
+      <c r="J13" s="21">
+        <v>1230</v>
+      </c>
+      <c r="K13" s="21">
+        <v>5415</v>
+      </c>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24">
+        <v>5.20992200193965E-2</v>
+      </c>
+      <c r="P13" s="24">
+        <v>0.233009368203276</v>
+      </c>
+      <c r="Q13" s="24">
+        <v>0.79102472557700698</v>
+      </c>
+      <c r="R13" s="24">
+        <v>3.0113698087969598</v>
+      </c>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24">
+        <v>5.20992200193965E-2</v>
+      </c>
+      <c r="W13" s="24">
+        <v>0.23814678675494999</v>
+      </c>
+      <c r="X13" s="24">
+        <v>0.80506910343512195</v>
+      </c>
+      <c r="Y13" s="24">
+        <v>3.1131424524163802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="23">
+        <v>149.999977324263</v>
+      </c>
+      <c r="C14" s="24">
+        <v>6.0826315188722703E-2</v>
+      </c>
+      <c r="D14" s="24">
+        <v>2.6578026532706302E-3</v>
+      </c>
+      <c r="E14" s="24">
+        <v>1.9108250897470101E-3</v>
+      </c>
+      <c r="F14" s="21">
+        <v>2</v>
+      </c>
+      <c r="G14" s="21">
+        <v>2</v>
+      </c>
+      <c r="H14" s="21">
+        <v>9</v>
+      </c>
+      <c r="I14" s="21">
+        <v>50</v>
+      </c>
+      <c r="J14" s="21">
+        <v>578</v>
+      </c>
+      <c r="K14" s="21">
+        <v>3580</v>
+      </c>
+      <c r="M14" s="24">
+        <v>6.0826315188722703E-2</v>
+      </c>
+      <c r="N14" s="24">
+        <v>0.24330526075489101</v>
+      </c>
+      <c r="O14" s="24">
+        <v>0.57360216979313905</v>
+      </c>
+      <c r="P14" s="24">
+        <v>0.50341126904308597</v>
+      </c>
+      <c r="Q14" s="24">
+        <v>0.74484765650534701</v>
+      </c>
+      <c r="R14" s="24">
+        <v>2.7215899169491302</v>
+      </c>
+      <c r="T14" s="24">
+        <v>6.0826315188722703E-2</v>
+      </c>
+      <c r="U14" s="24">
+        <v>0.24330526075489101</v>
+      </c>
+      <c r="V14" s="24">
+        <v>0.57360216979313905</v>
+      </c>
+      <c r="W14" s="24">
+        <v>0.22441896315984</v>
+      </c>
+      <c r="X14" s="24">
+        <v>0.53928918915970003</v>
+      </c>
+      <c r="Y14" s="24">
+        <v>1.9566848919009401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+    </row>
+    <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" s="28"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="I19" s="27">
+        <f>(D2/0.003)^(1/0.9281)</f>
+        <v>29.514874169943933</v>
+      </c>
+      <c r="J19" s="24">
+        <f>1994.7*(D2^(0.8093))</f>
+        <v>230.29060553859247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="21">
+        <v>90</v>
+      </c>
+      <c r="C20" s="41">
+        <f t="shared" ref="C20:C23" si="0">(C3+0.0087)/0.009</f>
+        <v>12.498377815678667</v>
+      </c>
+      <c r="D20" s="41">
+        <f t="shared" ref="D20:D23" si="1">C3*637.85+31.496</f>
+        <v>97.695517607575738</v>
+      </c>
+      <c r="E20" s="41">
+        <f t="shared" ref="E20:E23" si="2">339.46*C3^0.5407</f>
+        <v>99.727167764153535</v>
+      </c>
+      <c r="F20" s="41">
+        <f t="shared" ref="F20:F23" si="3">29.097*LN(C3)+161.54</f>
+        <v>95.622784164000777</v>
+      </c>
+      <c r="I20" s="27">
+        <f>(D3/0.003)^(1/0.9281)</f>
+        <v>3.3878080096304353</v>
+      </c>
+      <c r="J20" s="24">
+        <f>1994.7*(D3^(0.8093))</f>
+        <v>45.304341949768059</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="21">
+        <v>45</v>
+      </c>
+      <c r="C21" s="41">
+        <f t="shared" si="0"/>
+        <v>2.8937326206160225</v>
+      </c>
+      <c r="D21" s="41">
+        <f t="shared" si="1"/>
+        <v>42.558611168539372</v>
+      </c>
+      <c r="E21" s="41">
+        <f t="shared" si="2"/>
+        <v>37.904529640463622</v>
+      </c>
+      <c r="F21" s="41">
+        <f t="shared" si="3"/>
+        <v>43.56527987715296</v>
+      </c>
+      <c r="I21" s="27">
+        <f>(D4/0.003)^(1/0.9281)</f>
+        <v>1.2733029985161208</v>
+      </c>
+      <c r="J21" s="24">
+        <f>1994.7*(D4^(0.8093))</f>
+        <v>21.723372749373084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="21">
+        <v>64</v>
+      </c>
+      <c r="C22" s="41">
+        <f t="shared" si="0"/>
+        <v>1.8125609180160434</v>
+      </c>
+      <c r="D22" s="41">
+        <f t="shared" si="1"/>
+        <v>36.351982834008801</v>
+      </c>
+      <c r="E22" s="41">
+        <f t="shared" si="2"/>
+        <v>24.285515845279502</v>
+      </c>
+      <c r="F22" s="41">
+        <f t="shared" si="3"/>
+        <v>19.607987322204224</v>
+      </c>
+      <c r="I22" s="27">
+        <f>(D5/0.003)^(1/0.9281)</f>
+        <v>1.5921747119003573</v>
+      </c>
+      <c r="J22" s="24">
+        <f>1994.7*(D5^(0.8093))</f>
+        <v>25.693859138130588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="21">
+        <v>90</v>
+      </c>
+      <c r="C23" s="41">
+        <f t="shared" si="0"/>
+        <v>11.587861276600501</v>
+      </c>
+      <c r="D23" s="41">
+        <f t="shared" si="1"/>
+        <v>92.468560837516662</v>
+      </c>
+      <c r="E23" s="41">
+        <f t="shared" si="2"/>
+        <v>95.389258082839561</v>
+      </c>
+      <c r="F23" s="41">
+        <f t="shared" si="3"/>
+        <v>93.229578162012615</v>
+      </c>
+      <c r="I23" s="27">
+        <f>(D6/0.003)^(1/0.9281)</f>
+        <v>1.4277653871504381</v>
+      </c>
+      <c r="J23" s="24">
+        <f>1994.7*(D6^(0.8093))</f>
+        <v>23.674255529249351</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E41" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E42" s="33">
+        <v>1</v>
+      </c>
+      <c r="F42" s="34" cm="1">
+        <f t="array" ref="F42">SQRT(SUMSQ(B19:B23-C19:C23)/COUNTA(B19:B23-C19:C23))</f>
+        <v>59.657657132305445</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E43" s="35">
+        <v>2</v>
+      </c>
+      <c r="F43" s="36" cm="1">
+        <f t="array" ref="F43">SQRT(SUMSQ(B19:B23-D19:D23)/COUNTA(B19:B23-D19:D23))</f>
+        <v>12.928170918535644</v>
+      </c>
+      <c r="G43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E44" s="37">
+        <v>3</v>
+      </c>
+      <c r="F44" s="32" cm="1">
+        <f t="array" ref="F44">SQRT(SUMSQ(B19:B23-E19:E23)/COUNTA(B19:B23-E19:E23))</f>
+        <v>18.714955766413365</v>
+      </c>
+      <c r="G44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E45" s="38">
+        <v>4</v>
+      </c>
+      <c r="F45" s="39" cm="1">
+        <f t="array" ref="F45">SQRT(SUMSQ(B19:B23-F19:F23)/COUNTA(B19:B23-F19:F23))</f>
+        <v>20.07363987061624</v>
+      </c>
+      <c r="G45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C17:F17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE41D157-6BBB-47F7-AC96-7DF3592F224F}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56695,18 +63857,18 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -56833,18 +63995,18 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="29"/>
+      <c r="F9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
